--- a/src/farms4life2016/init/initialization.xlsx
+++ b/src/farms4life2016/init/initialization.xlsx
@@ -44,7 +44,7 @@
     <t>I_Supplier.xml</t>
   </si>
   <si>
-    <t>Feb 12, 2022 (08:36:53 EST)</t>
+    <t>Feb 12, 2022 (09:48:21 EST)</t>
   </si>
   <si>
     <t>Plant</t>

--- a/src/farms4life2016/init/initialization.xlsx
+++ b/src/farms4life2016/init/initialization.xlsx
@@ -44,7 +44,7 @@
     <t>I_Supplier.xml</t>
   </si>
   <si>
-    <t>Feb 12, 2022 (09:48:21 EST)</t>
+    <t>Feb 12, 2022 (09:57:27 EST)</t>
   </si>
   <si>
     <t>Plant</t>
